--- a/cookie_data.xlsx
+++ b/cookie_data.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-09-02 13:35:47</t>
+          <t>2024-09-02 17:34:31</t>
         </is>
       </c>
       <c r="D2" t="b">
@@ -541,7 +541,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>23h 59m 42s</t>
+          <t>23h 59m 44s</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-09-02 13:35:47</t>
+          <t>2024-09-02 17:34:31</t>
         </is>
       </c>
       <c r="D3" t="b">
@@ -596,24 +596,24 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>23h 59m 37s</t>
+          <t>23h 59m 39s</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>_gid</t>
+          <t>AWSALB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>.aga-us.com</t>
+          <t>www.aga-us.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2023-09-04 13:36:20</t>
+          <t>2023-09-10 17:35:00</t>
         </is>
       </c>
       <c r="D4" t="b">
@@ -651,14 +651,14 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>23h 59m 59s</t>
+          <t>23h 59m 58s</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>notice_behavior</t>
+          <t>_gid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -668,11 +668,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Session Cookie (no explicit expiry)</t>
+          <t>2023-09-04 17:35:00</t>
         </is>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -706,28 +706,28 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Session Cookie (no explicit expiry)</t>
+          <t>23h 59m 58s</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AWSALBCORS</t>
+          <t>_ga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>www.aga-us.com</t>
+          <t>.aga-us.com</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2023-09-10 13:36:19</t>
+          <t>2024-10-07 17:35:00</t>
         </is>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AWSALB</t>
+          <t>AWSALBCORS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -778,11 +778,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2023-09-10 13:36:19</t>
+          <t>2023-09-10 17:35:00</t>
         </is>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -816,14 +816,14 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>23h 59m 57s</t>
+          <t>23h 59m 58s</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>_ga</t>
+          <t>notice_behavior</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -833,11 +833,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-10-07 13:36:20</t>
+          <t>Session Cookie (no explicit expiry)</t>
         </is>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>23h 59m 58s</t>
+          <t>Session Cookie (no explicit expiry)</t>
         </is>
       </c>
     </row>

--- a/cookie_data.xlsx
+++ b/cookie_data.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-09-02 17:34:31</t>
+          <t>2024-09-02 18:07:55</t>
         </is>
       </c>
       <c r="D2" t="b">
@@ -541,7 +541,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>23h 59m 44s</t>
+          <t>23h 59m 42s</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-09-02 17:34:31</t>
+          <t>2024-09-02 18:07:55</t>
         </is>
       </c>
       <c r="D3" t="b">
@@ -596,7 +596,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>23h 59m 39s</t>
+          <t>23h 59m 37s</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2023-09-10 17:35:00</t>
+          <t>2023-09-10 18:08:25</t>
         </is>
       </c>
       <c r="D4" t="b">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2023-09-04 17:35:00</t>
+          <t>2023-09-04 18:08:25</t>
         </is>
       </c>
       <c r="D5" t="b">
@@ -723,7 +723,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-10-07 17:35:00</t>
+          <t>2024-10-07 18:08:25</t>
         </is>
       </c>
       <c r="D6" t="b">
@@ -778,7 +778,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2023-09-10 17:35:00</t>
+          <t>2023-09-10 18:08:25</t>
         </is>
       </c>
       <c r="D7" t="b">

--- a/cookie_data.xlsx
+++ b/cookie_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-09-02 18:07:55</t>
+          <t>2024-09-02 21:54:53</t>
         </is>
       </c>
       <c r="D2" t="b">
@@ -541,7 +541,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>23h 59m 42s</t>
+          <t>23h 59m 43s</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-09-02 18:07:55</t>
+          <t>2024-09-02 21:54:53</t>
         </is>
       </c>
       <c r="D3" t="b">
@@ -596,282 +596,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>23h 59m 37s</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AWSALB</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>www.aga-us.com</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2023-09-10 18:08:25</t>
-        </is>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>TrustArc</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Type2 (Both)</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>23h 59m 58s</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>_gid</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>.aga-us.com</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2023-09-04 18:08:25</t>
-        </is>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>TrustArc</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Type2 (Both)</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>23h 59m 58s</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>_ga</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>.aga-us.com</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2024-10-07 18:08:25</t>
-        </is>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>TrustArc</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Type2 (Both)</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>23h 59m 58s</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AWSALBCORS</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>www.aga-us.com</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2023-09-10 18:08:25</t>
-        </is>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>TrustArc</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Type2 (Both)</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>23h 59m 58s</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>notice_behavior</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>.aga-us.com</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Session Cookie (no explicit expiry)</t>
-        </is>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>TrustArc</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Type2 (Both)</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Session Cookie (no explicit expiry)</t>
+          <t>23h 59m 38s</t>
         </is>
       </c>
     </row>

--- a/cookie_data.xlsx
+++ b/cookie_data.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-09-02 21:54:53</t>
+          <t>2024-09-02 22:29:42</t>
         </is>
       </c>
       <c r="D2" t="b">
@@ -541,7 +541,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>23h 59m 43s</t>
+          <t>23h 59m 44s</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-09-02 21:54:53</t>
+          <t>2024-09-02 22:29:42</t>
         </is>
       </c>
       <c r="D3" t="b">

--- a/cookie_data.xlsx
+++ b/cookie_data.xlsx
@@ -432,6 +432,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="24" customWidth="1" min="9" max="9"/>
+    <col width="19" customWidth="1" min="10" max="10"/>
+    <col width="13" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -503,7 +516,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-09-02 22:29:42</t>
+          <t>2024-09-02 23:26:19</t>
         </is>
       </c>
       <c r="D2" t="b">
@@ -558,7 +571,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-09-02 22:29:42</t>
+          <t>2024-09-02 23:26:19</t>
         </is>
       </c>
       <c r="D3" t="b">
@@ -596,7 +609,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>23h 59m 38s</t>
+          <t>23h 59m 39s</t>
         </is>
       </c>
     </row>

--- a/cookie_data.xlsx
+++ b/cookie_data.xlsx
@@ -425,26 +425,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="27" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="21" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="24" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
-    <col width="13" customWidth="1" min="11" max="11"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -516,7 +503,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-09-02 23:26:19</t>
+          <t>2024-09-03 14:24:16</t>
         </is>
       </c>
       <c r="D2" t="b">
@@ -554,7 +541,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>23h 59m 44s</t>
+          <t>23h 59m 43s</t>
         </is>
       </c>
     </row>
@@ -571,7 +558,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-09-02 23:26:19</t>
+          <t>2024-09-03 14:24:16</t>
         </is>
       </c>
       <c r="D3" t="b">
@@ -608,6 +595,116 @@
         </is>
       </c>
       <c r="K3" t="inlineStr">
+        <is>
+          <t>23h 59m 38s</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>osano_consentmanager</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>.victorinsurance.nl</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-09-03 14:24:48</t>
+        </is>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Osano</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Type1 (Manage Cookies)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>23h 59m 44s</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>osano_consentmanager_uuid</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>.victorinsurance.nl</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-09-03 14:24:48</t>
+        </is>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Osano</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Type1 (Manage Cookies)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>23h 59m 39s</t>
         </is>

--- a/cookie_data.xlsx
+++ b/cookie_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-09-04 10:12:33</t>
+          <t>2024-09-04 10:43:39</t>
         </is>
       </c>
       <c r="D2" t="b">
@@ -558,7 +558,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-09-04 10:12:33</t>
+          <t>2024-09-04 10:43:39</t>
         </is>
       </c>
       <c r="D3" t="b">
@@ -613,7 +613,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-09-04 10:13:30</t>
+          <t>2024-09-04 10:44:35</t>
         </is>
       </c>
       <c r="D4" t="b">
@@ -639,11 +639,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Type1 (Manage Cookies)</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>No</t>
@@ -668,7 +664,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-09-04 10:13:30</t>
+          <t>2024-09-04 10:44:35</t>
         </is>
       </c>
       <c r="D5" t="b">
@@ -694,11 +690,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Type1 (Manage Cookies)</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
           <t>No</t>
@@ -723,7 +715,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-09-04 10:14:06</t>
+          <t>2024-09-04 10:45:08</t>
         </is>
       </c>
       <c r="D6" t="b">
@@ -778,7 +770,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-09-04 10:14:06</t>
+          <t>2024-09-04 10:45:08</t>
         </is>
       </c>
       <c r="D7" t="b">
@@ -816,7 +808,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>12 (month)(s) 4 day(s) 23 hour(s) 59 minute(s) 38 second(s)</t>
+          <t>12 (month)(s) 4 day(s) 23 hour(s) 59 minute(s) 37 second(s)</t>
         </is>
       </c>
     </row>
@@ -880,7 +872,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-10-09 10:14:37</t>
+          <t>2024-10-09 10:45:39</t>
         </is>
       </c>
       <c r="D9" t="b">
@@ -911,6 +903,312 @@
       <c r="K9" t="inlineStr">
         <is>
           <t>1 (month)(s) 4 day(s) 23 hour(s) 59 minute(s) 11 second(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>osano_consentmanager</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>.sanint.it</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024-09-04 10:47:28</t>
+        </is>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>TrustArc</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>12 (month)(s) 4 day(s) 23 hour(s) 59 minute(s) 39 second(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>osano_consentmanager_uuid</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>.sanint.it</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2024-09-04 10:47:28</t>
+        </is>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>TrustArc</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>12 (month)(s) 4 day(s) 23 hour(s) 59 minute(s) 33 second(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>osano_consentmanager</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>.victorinsurance.nl</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024-09-04 10:48:03</t>
+        </is>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Osano</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Type1 (Manage Cookies)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>12 (month)(s) 4 day(s) 23 hour(s) 59 minute(s) 43 second(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>osano_consentmanager_uuid</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>.victorinsurance.nl</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2024-09-04 10:48:03</t>
+        </is>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Osano</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Type1 (Manage Cookies)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>12 (month)(s) 4 day(s) 23 hour(s) 59 minute(s) 38 second(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>JSESSIONID</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>mmcglobal.okta.com</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Session Cookie (no explicit expiry)</t>
+        </is>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Session Cookie (no explicit expiry)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>mmcglobal.okta.com</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024-10-09 10:48:33</t>
+        </is>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1 (month)(s) 4 day(s) 23 hour(s) 59 minute(s) 12 second(s)</t>
         </is>
       </c>
     </row>

--- a/cookie_data.xlsx
+++ b/cookie_data.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-09-04 10:12:33</t>
+          <t>2024-09-04 16:10:08</t>
         </is>
       </c>
       <c r="D2" t="b">
@@ -558,7 +558,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-09-04 10:12:33</t>
+          <t>2024-09-04 16:10:08</t>
         </is>
       </c>
       <c r="D3" t="b">
@@ -596,7 +596,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>12 (month)(s) 4 day(s) 23 hour(s) 59 minute(s) 37 second(s)</t>
+          <t>12 (month)(s) 4 day(s) 23 hour(s) 59 minute(s) 38 second(s)</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-09-04 10:13:30</t>
+          <t>2024-09-04 16:11:01</t>
         </is>
       </c>
       <c r="D4" t="b">
@@ -639,11 +639,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Type1 (Manage Cookies)</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>No</t>
@@ -668,7 +664,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-09-04 10:13:30</t>
+          <t>2024-09-04 16:11:01</t>
         </is>
       </c>
       <c r="D5" t="b">
@@ -694,11 +690,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Type1 (Manage Cookies)</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
           <t>No</t>
@@ -723,7 +715,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-09-04 10:14:06</t>
+          <t>2024-09-04 16:11:34</t>
         </is>
       </c>
       <c r="D6" t="b">
@@ -761,7 +753,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>12 (month)(s) 4 day(s) 23 hour(s) 59 minute(s) 43 second(s)</t>
+          <t>12 (month)(s) 4 day(s) 23 hour(s) 59 minute(s) 44 second(s)</t>
         </is>
       </c>
     </row>
@@ -778,7 +770,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-09-04 10:14:06</t>
+          <t>2024-09-04 16:11:34</t>
         </is>
       </c>
       <c r="D7" t="b">
@@ -880,7 +872,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-10-09 10:14:37</t>
+          <t>2024-10-09 16:12:03</t>
         </is>
       </c>
       <c r="D9" t="b">
@@ -910,7 +902,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1 (month)(s) 4 day(s) 23 hour(s) 59 minute(s) 11 second(s)</t>
+          <t>1 (month)(s) 4 day(s) 23 hour(s) 59 minute(s) 12 second(s)</t>
         </is>
       </c>
     </row>

--- a/cookie_data.xlsx
+++ b/cookie_data.xlsx
@@ -425,26 +425,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="27" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
-    <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="24" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
-    <col width="61" customWidth="1" min="11" max="11"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -516,7 +503,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-09-04 16:19:20</t>
+          <t>2024-09-04 17:51:56</t>
         </is>
       </c>
       <c r="D2" t="b">
@@ -571,7 +558,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-09-04 16:19:20</t>
+          <t>2024-09-04 17:51:56</t>
         </is>
       </c>
       <c r="D3" t="b">
@@ -610,306 +597,6 @@
       <c r="K3" t="inlineStr">
         <is>
           <t>12 (month)(s) 4 day(s) 23 hour(s) 59 minute(s) 38 second(s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>osano_consentmanager</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>.sanint.it</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2024-09-04 16:20:13</t>
-        </is>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>TrustArc</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>12 (month)(s) 4 day(s) 23 hour(s) 59 minute(s) 43 second(s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>osano_consentmanager_uuid</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>.sanint.it</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2024-09-04 16:20:13</t>
-        </is>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>TrustArc</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>12 (month)(s) 4 day(s) 23 hour(s) 59 minute(s) 37 second(s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>osano_consentmanager</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>.victorinsurance.nl</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2024-09-04 16:20:44</t>
-        </is>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Osano</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Type1 (Manage Cookies)</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>12 (month)(s) 4 day(s) 23 hour(s) 59 minute(s) 43 second(s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>osano_consentmanager_uuid</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>.victorinsurance.nl</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2024-09-04 16:20:44</t>
-        </is>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Osano</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Type1 (Manage Cookies)</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>12 (month)(s) 4 day(s) 23 hour(s) 59 minute(s) 38 second(s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>JSESSIONID</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>mmcglobal.okta.com</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Session Cookie (no explicit expiry)</t>
-        </is>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Session Cookie (no explicit expiry)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>DT</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>mmcglobal.okta.com</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2024-10-09 16:21:14</t>
-        </is>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>1 (month)(s) 4 day(s) 23 hour(s) 59 minute(s) 12 second(s)</t>
         </is>
       </c>
     </row>

--- a/cookie_data.xlsx
+++ b/cookie_data.xlsx
@@ -498,12 +498,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>.ironwoodins.com</t>
+          <t>.victorinsurance.nl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-09-04 17:51:56</t>
+          <t>2024-09-05 22:12:04</t>
         </is>
       </c>
       <c r="D2" t="b">
@@ -553,12 +553,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>.ironwoodins.com</t>
+          <t>.victorinsurance.nl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-09-04 17:51:56</t>
+          <t>2024-09-05 22:12:04</t>
         </is>
       </c>
       <c r="D3" t="b">
